--- a/data/CS5/Market Data/CS5_market_data_2045.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DDE982-7892-4911-8AB9-A85E30DE4AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCD69C1-C670-4588-AED0-20DFFF320E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="-8805" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38145" yWindow="-11715" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,10 +1335,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS5/Market Data/CS5_market_data_2045.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCD69C1-C670-4588-AED0-20DFFF320E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561CC442-522D-4CCE-AC77-8CA4592C3E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38145" yWindow="-11715" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37710" yWindow="-12150" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,11 +1335,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS5/Market Data/CS5_market_data_2045.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561CC442-522D-4CCE-AC77-8CA4592C3E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E035C2A-CFE9-4D24-87D3-190702A6B2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37710" yWindow="-12150" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38145" yWindow="-11715" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS5/Market Data/CS5_market_data_2045.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E035C2A-CFE9-4D24-87D3-190702A6B2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C43621F-43D5-4468-903C-073E2E0036C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38145" yWindow="-11715" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36990" yWindow="-10200" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,10 +1335,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS5/Market Data/CS5_market_data_2045.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C43621F-43D5-4468-903C-073E2E0036C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689BC953-796F-48E7-BE0D-C9E3A2EB9C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36990" yWindow="-10200" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33675" yWindow="-9405" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,15 +1338,15 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
+        <f>1/$B$1</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
+        <f>1/$B$1</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
+        <f>1/$B$1</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2045.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689BC953-796F-48E7-BE0D-C9E3A2EB9C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C55267-3DC0-4573-9B0B-FE37910A0D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33675" yWindow="-9405" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2045.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C55267-3DC0-4573-9B0B-FE37910A0D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1547916-5482-4C4B-893E-8161D75746B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2045.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1547916-5482-4C4B-893E-8161D75746B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AA13AA-327B-4ABC-8E98-2201BAD46B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2045.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AA13AA-327B-4ABC-8E98-2201BAD46B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA77DFE7-6DD4-4C80-B727-C9FD188B6215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2045.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA77DFE7-6DD4-4C80-B727-C9FD188B6215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D809BB6-F0BD-47E9-BC19-379FC2F691A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2045.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2045.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D809BB6-F0BD-47E9-BC19-379FC2F691A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE5FFCE-960B-4598-BA7E-E244EA4E7A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2045.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE5FFCE-960B-4598-BA7E-E244EA4E7A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD863C4-2F90-4771-925F-D06F700C54E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2045.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD863C4-2F90-4771-925F-D06F700C54E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F975A2BD-88DE-407E-911A-88FDF299CB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2045.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F975A2BD-88DE-407E-911A-88FDF299CB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5713B99F-292A-425D-B101-FD69FE7C1EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2045.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5713B99F-292A-425D-B101-FD69FE7C1EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A471F1-7823-4517-8461-091D5A08B957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS5/Market Data/CS5_market_data_2045.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A471F1-7823-4517-8461-091D5A08B957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E239DB8-8644-449D-AF0C-951A9A58FD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2045.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E239DB8-8644-449D-AF0C-951A9A58FD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18205EE8-D8EC-4C55-B175-8F7AE990883C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2045.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18205EE8-D8EC-4C55-B175-8F7AE990883C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC86509C-3A2F-4C3D-B7B3-8C6D1C819D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2045.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC86509C-3A2F-4C3D-B7B3-8C6D1C819D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A43CC17-8B63-4812-A3AB-7B61F1D05BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
